--- a/outputs-HGR-r202/g__GCA-900066495_train.xlsx
+++ b/outputs-HGR-r202/g__GCA-900066495_train.xlsx
@@ -6,9 +6,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="s__GCA-900066495 sp902362365-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="s__GCA-900066495 sp900066495-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="s__GCA-900066495 sp900545985-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="s__GCA-900066495 sp900066495-b-p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="s__GCA-900066495 sp900545985-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="s__GCA-900066495 sp902362365-b-p" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -503,2293 +503,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900066495</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_13.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1072154586500952</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4396384323897089</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.453146108960196</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_19.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1083233327578702</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.439759035140075</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4519176321020549</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_27.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1149653073530344</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4334949819974629</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4515397106495027</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_29.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.112297355407704</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4369722784915395</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4507303661007565</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_37.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1121986046662586</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4361148869653</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4516865083684414</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_4.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.110110207324663</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4400611499281115</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4498286427472256</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_5.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1090812550648195</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4387049557326957</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4522137892024848</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_51.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1131388550838641</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4358292736070639</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4510318713090721</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_52.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1140398793439358</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4364907012048864</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4494694194511779</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_56.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1146476541368604</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.43535965573474</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4499926901283997</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_67.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1163628401710396</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4376998788411331</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.4459372809878273</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_74.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1140028150794961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4442566709476403</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4417405139728637</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_75.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.1102131337562775</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4323430573840886</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4574438088596338</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_78.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.1157374151580773</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4371672641785788</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.447095320663344</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_86.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.1164845577146722</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4415757088838507</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4419397334014771</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_89.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1596160141987768</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3953998069475304</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4449841788536928</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_10.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1437380662459378</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4261033362953959</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4301585974586664</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_11.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1463215497321349</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4193504399524786</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4343280103153864</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_18.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1435085739194009</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4283216642220978</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4281697618585014</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_20.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1421906799958461</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4269573714861465</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4308519485180072</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_23.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1406442304870599</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4387858076862119</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.4205699618267281</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_24.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1427311882763767</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4277612699935906</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.4295075417300326</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_34.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.1437236634338401</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4302837691862959</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4259925673798639</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_36.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.1360040510285758</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.4513521487489201</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4126438002225041</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_39.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.1372344074323818</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.4466548437110268</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4161107488565914</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_42.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1415343685504368</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.4364320294231239</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.4220336020264393</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_53.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1382676736863444</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.4452358057440133</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.4164965205696423</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_54.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.138179772032577</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.4427439060763654</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.4190763218910575</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_58.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.1394421973942088</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.438274288953803</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.4222835136519882</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_62.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1397342731940376</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.4377298108289941</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.4225359159769683</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_68.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1364150104995208</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4502290937524066</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.4133558957480726</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_69.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1405238905076723</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.4355225987744982</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.4239535107178295</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_73.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.1361956629728296</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4466913698020762</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.4171129672250941</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_82.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1418802425053215</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.4427132074389709</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.4154065500557075</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_83.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.1441792946610136</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.4395011573075863</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.4163195480314001</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_90.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.1636742111527463</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.3786556788347227</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.4576701100125311</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_0.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.1230304713613623</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.4460096323278885</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.4309598963107493</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_16.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.1271274400906074</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4352267079847502</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4376458519246424</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_22.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1237220362731606</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.4399402698076593</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.43633769391918</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_28.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1223617835250677</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.444746389480176</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4328918269947563</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_30.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1239821682171522</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.441092104366334</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.4349257274165138</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_35.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.1274332264472393</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.4326985584929</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.4398682150598607</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_40.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.1237168442877145</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.440680864961438</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4356022907508476</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_44.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.124377348541241</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4380638978645194</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.4375587535942397</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_49.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1252791060840489</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.4362445870989936</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4384763068169576</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_60.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1247373890059869</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.4354712720312679</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.4397913389627453</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_65.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1254367653696187</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.4342002363037518</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4403629983266295</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_66.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.1239947712153318</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.4369079957042653</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.4390972330804028</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_7.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.1214810000979514</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.4435930394284552</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4349259604735934</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_70.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.1227059467305393</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4377805286750776</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.439513524594383</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_8.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.1232368949757816</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.4422661478516259</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.4344969571725925</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_87.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.123443993273119</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.4407727782506773</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4357832284762037</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_88.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.1031430816711257</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.4755998662169377</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4212570521119367</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_9.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.1259127920570837</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.4343508041084015</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4397364038345147</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_14.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.1235771438795936</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4253397899473222</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4510830661730842</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_2.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.1250604962135353</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.4290407632504222</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.4458987405360424</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_26.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.1184902922400348</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.4282728808194163</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.453236826940549</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_32.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.1222275750626335</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.424176110340887</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.4535963145964794</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_38.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.1230022707212434</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.4286554787254068</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.4483422505533498</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_41.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.125541466881252</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.4265408018860103</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.4479177312327378</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_47.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.1326943664494853</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.4278933441736688</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.4394122893768459</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_55.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.1213721786275306</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.4274596102862938</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.4511682110861757</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_59.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.1220497925037141</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.4266097778753211</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.4513404296209649</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_6.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.1239178851805849</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.4298015705387093</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.446280544280706</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_61.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.1163082570948816</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.4301522489138873</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.4535394939912312</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_63.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.1182834051325857</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.4263913936813072</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.4553252011861072</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_64.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.1135683077078587</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.4309873003427145</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.4554443919494269</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_76.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.1134182184799705</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.4322519516246159</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.4543298298954136</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_79.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.1144542777795162</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.4309199298023113</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.4546257924181725</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_85.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.1228306510755258</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.4317023051937736</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.4454670437307005</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_13.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.1072154586500952</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.4396384323897089</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.453146108960196</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_19.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.1083233327578702</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.439759035140075</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.4519176321020549</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_27.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.1149653073530344</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.4334949819974629</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.4515397106495027</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_29.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.112297355407704</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.4369722784915395</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.4507303661007565</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_37.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.1121986046662586</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.4361148869653</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.4516865083684414</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_4.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.110110207324663</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.4400611499281115</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.4498286427472256</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_5.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.1090812550648195</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.4387049557326957</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.4522137892024848</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_51.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.1131388550838641</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.4358292736070639</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4510318713090721</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_52.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.1140398793439358</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.4364907012048864</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.4494694194511779</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_56.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.1146476541368604</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.43535965573474</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.4499926901283997</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_67.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.1163628401710396</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.4376998788411331</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.4459372809878273</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_74.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.1140028150794961</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.4442566709476403</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.4417405139728637</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp900545985</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_75.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.1102131337562775</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.4323430573840886</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.4574438088596338</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_78.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.1157374151580773</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.4371672641785788</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.447095320663344</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_86.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.1164845577146722</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.4415757088838507</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4419397334014771</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="11" t="inlineStr">
-        <is>
-          <t>label_11861_6_55_89.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.1596160141987768</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.3953998069475304</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4449841788536928</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>s__GCA-900066495 sp902362365</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3579,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5860,4 +3573,2119 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900066495</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_13.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1072154586500952</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4396384323897089</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.453146108960196</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.453146108960196</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_19.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1083233327578702</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.439759035140075</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4519176321020549</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4519176321020549</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_27.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1149653073530344</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4334949819974629</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4515397106495027</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4515397106495027</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_29.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.112297355407704</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4369722784915395</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4507303661007565</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4507303661007565</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_37.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1121986046662586</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4361148869653</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4516865083684414</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4516865083684414</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_4.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.110110207324663</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4400611499281115</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4498286427472256</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4498286427472256</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_5.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1090812550648195</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4387049557326957</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4522137892024848</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4522137892024848</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_51.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1131388550838641</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4358292736070639</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4510318713090721</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4510318713090721</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_52.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1140398793439358</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4364907012048864</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4494694194511779</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4494694194511779</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_56.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1146476541368604</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.43535965573474</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4499926901283997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4499926901283997</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_67.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1163628401710396</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4376998788411331</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4459372809878273</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4459372809878273</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_74.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1140028150794961</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4442566709476403</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4417405139728637</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4442566709476403</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_75.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1102131337562775</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4323430573840886</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4574438088596338</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4574438088596338</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_78.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1157374151580773</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4371672641785788</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.447095320663344</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.447095320663344</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_86.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1164845577146722</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4415757088838507</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4419397334014771</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4419397334014771</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_89.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1596160141987768</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3953998069475304</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4449841788536928</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4449841788536928</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_10.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1437380662459378</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4261033362953959</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4301585974586664</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4301585974586664</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_11.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1463215497321349</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4193504399524786</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4343280103153864</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4343280103153864</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_18.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1435085739194009</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4283216642220978</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4281697618585014</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4283216642220978</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_20.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1421906799958461</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4269573714861465</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4308519485180072</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4308519485180072</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_23.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1406442304870599</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4387858076862119</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4205699618267281</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4387858076862119</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_24.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1427311882763767</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4277612699935906</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4295075417300326</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4295075417300326</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_34.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1437236634338401</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4302837691862959</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4259925673798639</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4302837691862959</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_36.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1360040510285758</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4513521487489201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4126438002225041</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4513521487489201</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_39.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1372344074323818</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4466548437110268</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4161107488565914</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4466548437110268</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_42.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1415343685504368</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4364320294231239</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4220336020264393</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4364320294231239</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_53.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1382676736863444</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4452358057440133</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4164965205696423</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4452358057440133</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_54.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.138179772032577</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4427439060763654</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4190763218910575</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4427439060763654</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_58.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1394421973942088</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.438274288953803</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4222835136519882</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.438274288953803</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_62.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1397342731940376</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4377298108289941</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4225359159769683</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4377298108289941</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_68.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1364150104995208</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4502290937524066</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.4133558957480726</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4502290937524066</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_69.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1405238905076723</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4355225987744982</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4239535107178295</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4355225987744982</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_73.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1361956629728296</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.4466913698020762</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4171129672250941</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4466913698020762</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_82.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1418802425053215</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4427132074389709</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4154065500557075</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4427132074389709</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_83.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1441792946610136</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4395011573075863</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.4163195480314001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4395011573075863</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_90.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1636742111527463</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3786556788347227</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4576701100125311</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4576701100125311</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_0.fasta</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1230304713613623</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4460096323278885</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4309598963107493</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4460096323278885</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_16.fasta</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1271274400906074</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4352267079847502</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4376458519246424</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4376458519246424</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_22.fasta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1237220362731606</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4399402698076593</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.43633769391918</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4399402698076593</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_28.fasta</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1223617835250677</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.444746389480176</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4328918269947563</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.444746389480176</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_30.fasta</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1239821682171522</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.441092104366334</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4349257274165138</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.441092104366334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_35.fasta</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1274332264472393</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4326985584929</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4398682150598607</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.4398682150598607</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_40.fasta</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1237168442877145</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.440680864961438</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4356022907508476</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.440680864961438</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_44.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.124377348541241</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4380638978645194</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4375587535942397</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4380638978645194</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_49.fasta</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1252791060840489</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4362445870989936</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4384763068169576</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4384763068169576</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_60.fasta</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1247373890059869</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4354712720312679</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4397913389627453</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.4397913389627453</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_65.fasta</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1254367653696187</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4342002363037518</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4403629983266295</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4403629983266295</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_66.fasta</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1239947712153318</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4369079957042653</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.4390972330804028</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.4390972330804028</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_7.fasta</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1214810000979514</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4435930394284552</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4349259604735934</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4435930394284552</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_70.fasta</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1227059467305393</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4377805286750776</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.439513524594383</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.439513524594383</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_8.fasta</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1232368949757816</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4422661478516259</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4344969571725925</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4422661478516259</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_87.fasta</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.123443993273119</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4407727782506773</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4357832284762037</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4407727782506773</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_88.fasta</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1031430816711257</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4755998662169377</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4212570521119367</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4755998662169377</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_9.fasta</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1259127920570837</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4343508041084015</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4397364038345147</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.4397364038345147</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_14.fasta</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1235771438795936</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4253397899473222</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4510830661730842</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.4510830661730842</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_2.fasta</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1250604962135353</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4290407632504222</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.4458987405360424</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4458987405360424</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_26.fasta</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1184902922400348</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4282728808194163</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.453236826940549</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.453236826940549</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_32.fasta</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1222275750626335</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.424176110340887</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4535963145964794</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4535963145964794</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_38.fasta</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1230022707212434</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.4286554787254068</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4483422505533498</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4483422505533498</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_41.fasta</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.125541466881252</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4265408018860103</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4479177312327378</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4479177312327378</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_47.fasta</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1326943664494853</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4278933441736688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4394122893768459</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4394122893768459</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_55.fasta</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1213721786275306</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4274596102862938</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4511682110861757</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.4511682110861757</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_59.fasta</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1220497925037141</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4266097778753211</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.4513404296209649</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4513404296209649</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_6.fasta</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1239178851805849</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4298015705387093</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.446280544280706</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.446280544280706</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_61.fasta</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1163082570948816</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4301522489138873</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.4535394939912312</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.4535394939912312</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_63.fasta</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1182834051325857</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4263913936813072</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4553252011861072</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4553252011861072</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_64.fasta</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1135683077078587</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4309873003427145</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4554443919494269</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4554443919494269</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_76.fasta</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1134182184799705</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4322519516246159</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.4543298298954136</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.4543298298954136</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_79.fasta</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1144542777795162</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4309199298023113</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4546257924181725</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.4546257924181725</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_85.fasta</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1228306510755258</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.4317023051937736</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4454670437307005</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4454670437307005</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_13.fasta</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1072154586500952</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4396384323897089</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.453146108960196</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.453146108960196</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_19.fasta</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1083233327578702</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.439759035140075</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4519176321020549</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4519176321020549</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_27.fasta</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1149653073530344</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4334949819974629</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4515397106495027</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4515397106495027</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_29.fasta</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.112297355407704</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4369722784915395</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4507303661007565</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4507303661007565</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_37.fasta</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1121986046662586</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4361148869653</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.4516865083684414</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4516865083684414</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_4.fasta</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.110110207324663</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4400611499281115</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4498286427472256</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4498286427472256</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_5.fasta</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1090812550648195</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.4387049557326957</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.4522137892024848</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.4522137892024848</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_51.fasta</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1131388550838641</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4358292736070639</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.4510318713090721</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.4510318713090721</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_52.fasta</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1140398793439358</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.4364907012048864</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4494694194511779</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.4494694194511779</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_56.fasta</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1146476541368604</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.43535965573474</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4499926901283997</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4499926901283997</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_67.fasta</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1163628401710396</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.4376998788411331</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4459372809878273</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4459372809878273</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_74.fasta</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1140028150794961</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4442566709476403</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.4417405139728637</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4442566709476403</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp900545985</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_75.fasta</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1102131337562775</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4323430573840886</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.4574438088596338</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4574438088596338</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_78.fasta</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1157374151580773</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4371672641785788</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.447095320663344</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.447095320663344</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_86.fasta</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1164845577146722</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4415757088838507</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4419397334014771</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4419397334014771</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="inlineStr">
+        <is>
+          <t>label_11861_6_55_89.fasta</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1596160141987768</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.3953998069475304</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.4449841788536928</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4449841788536928</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>s__GCA-900066495 sp902362365</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>